--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118042.3957400986</v>
+        <v>20787220.6925305</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118042.3957400986</v>
+        <v>20787220.6925305</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3901.915081601406</v>
+        <v>376617.1137531046</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3901.915081601406</v>
+        <v>376617.1137531046</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035473597.449052</v>
+        <v>42140407.71793476</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8052.762573724101</v>
+        <v>934813.4378715132</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15496.45183225493</v>
+        <v>1781653.708364925</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23016.25670035987</v>
+        <v>2628493.978858338</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30646.9568852583</v>
+        <v>3477467.428070204</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38254.1463534443</v>
+        <v>4326188.373603462</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45926.85668909051</v>
+        <v>5174909.319136717</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53618.06208720934</v>
+        <v>6023630.26466997</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61205.57494161525</v>
+        <v>6872351.210203222</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68910.88625929823</v>
+        <v>7720661.52581992</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76439.30031401086</v>
+        <v>8569028.695456108</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84040.46514498447</v>
+        <v>9417395.865092302</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91454.27474085912</v>
+        <v>10263822.44794131</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98834.69553805939</v>
+        <v>11110482.28013751</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106527.4188765616</v>
+        <v>11920531.63094531</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114166.8292906166</v>
+        <v>12734011.23104866</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>362</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>375</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
